--- a/VII - PASSED OUT bashir.xlsx
+++ b/VII - PASSED OUT bashir.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1350">
   <si>
     <t>REGISTRATION NUMBER</t>
   </si>
@@ -4069,6 +4069,9 @@
   </si>
   <si>
     <t>03299988852</t>
+  </si>
+  <si>
+    <t>huihuihjkhkjhnjk</t>
   </si>
 </sst>
 </file>
@@ -4464,7 +4467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4473,10 +4476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G599"/>
+  <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G501" sqref="G501"/>
+      <selection activeCell="D605" sqref="D605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15035,6 +15038,11 @@
     <row r="599" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E599" s="6"/>
     </row>
+    <row r="602" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D602" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G597">
     <filterColumn colId="0">

--- a/VII - PASSED OUT bashir.xlsx
+++ b/VII - PASSED OUT bashir.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bashir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF84F164-DF23-4895-BEB5-9047D69651A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19440" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4182,7 +4188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4581,33 +4587,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4630,7 +4639,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4651,7 +4660,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4668,7 +4677,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4685,7 +4694,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4702,7 +4711,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4719,7 +4728,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4736,7 +4745,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4753,7 +4762,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -4770,7 +4779,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -4793,7 +4802,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -4810,7 +4819,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -4827,7 +4836,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -4844,7 +4853,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -4861,7 +4870,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -4878,7 +4887,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4895,7 +4904,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -4912,7 +4921,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -4935,7 +4944,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4952,7 +4961,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -4969,7 +4978,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -4986,7 +4995,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5003,7 +5012,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,7 +5029,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -5037,7 +5046,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -5054,7 +5063,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -5071,7 +5080,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -5088,7 +5097,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -5111,7 +5120,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -5128,7 +5137,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -5145,7 +5154,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
@@ -5162,7 +5171,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -5179,7 +5188,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -5196,7 +5205,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -5213,7 +5222,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -5230,7 +5239,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
@@ -5247,7 +5256,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
@@ -5264,7 +5273,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -5281,7 +5290,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
@@ -5298,7 +5307,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -5315,7 +5324,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>96</v>
       </c>
@@ -5332,7 +5341,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>98</v>
       </c>
@@ -5349,7 +5358,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
@@ -5366,7 +5375,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
@@ -5383,7 +5392,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -5400,7 +5409,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>106</v>
       </c>
@@ -5417,7 +5426,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
@@ -5434,7 +5443,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
@@ -5451,7 +5460,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
@@ -5468,7 +5477,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
@@ -5485,7 +5494,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>116</v>
       </c>
@@ -5502,7 +5511,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -5519,7 +5528,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -5536,7 +5545,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>122</v>
       </c>
@@ -5559,7 +5568,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
@@ -5576,7 +5585,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>126</v>
       </c>
@@ -5593,7 +5602,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -5610,7 +5619,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -5627,7 +5636,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>132</v>
       </c>
@@ -5644,7 +5653,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
@@ -5661,7 +5670,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>136</v>
       </c>
@@ -5684,7 +5693,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>138</v>
       </c>
@@ -5701,7 +5710,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>140</v>
       </c>
@@ -5718,7 +5727,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>142</v>
       </c>
@@ -5739,7 +5748,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>144</v>
       </c>
@@ -5756,7 +5765,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
@@ -5773,7 +5782,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -5790,7 +5799,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>150</v>
       </c>
@@ -5807,7 +5816,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>152</v>
       </c>
@@ -5824,7 +5833,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>154</v>
       </c>
@@ -5841,7 +5850,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -5858,7 +5867,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>158</v>
       </c>
@@ -5875,7 +5884,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -5892,7 +5901,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
@@ -5909,7 +5918,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -5926,7 +5935,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>166</v>
       </c>
@@ -5943,7 +5952,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>168</v>
       </c>
@@ -5960,7 +5969,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
@@ -5977,7 +5986,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>172</v>
       </c>
@@ -5994,7 +6003,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
@@ -6011,7 +6020,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>176</v>
       </c>
@@ -6028,7 +6037,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>178</v>
       </c>
@@ -6045,7 +6054,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>180</v>
       </c>
@@ -6062,7 +6071,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>182</v>
       </c>
@@ -6079,7 +6088,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>184</v>
       </c>
@@ -6096,7 +6105,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>186</v>
       </c>
@@ -6113,7 +6122,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>188</v>
       </c>
@@ -6130,7 +6139,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>190</v>
       </c>
@@ -6147,7 +6156,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>192</v>
       </c>
@@ -6164,7 +6173,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>194</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>196</v>
       </c>
@@ -6204,7 +6213,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
@@ -6221,7 +6230,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>200</v>
       </c>
@@ -6238,7 +6247,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>202</v>
       </c>
@@ -6255,7 +6264,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>204</v>
       </c>
@@ -6272,7 +6281,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>206</v>
       </c>
@@ -6295,7 +6304,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>208</v>
       </c>
@@ -6312,7 +6321,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>210</v>
       </c>
@@ -6329,7 +6338,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>212</v>
       </c>
@@ -6352,7 +6361,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>214</v>
       </c>
@@ -6369,7 +6378,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>216</v>
       </c>
@@ -6386,7 +6395,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>218</v>
       </c>
@@ -6403,7 +6412,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>220</v>
       </c>
@@ -6420,7 +6429,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
@@ -6437,7 +6446,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>224</v>
       </c>
@@ -6454,7 +6463,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>226</v>
       </c>
@@ -6471,7 +6480,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>228</v>
       </c>
@@ -6488,7 +6497,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>230</v>
       </c>
@@ -6505,7 +6514,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>232</v>
       </c>
@@ -6522,7 +6531,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>234</v>
       </c>
@@ -6539,7 +6548,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>236</v>
       </c>
@@ -6556,7 +6565,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>238</v>
       </c>
@@ -6573,7 +6582,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>240</v>
       </c>
@@ -6590,7 +6599,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>242</v>
       </c>
@@ -6613,7 +6622,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>244</v>
       </c>
@@ -6630,7 +6639,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>246</v>
       </c>
@@ -6647,7 +6656,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>248</v>
       </c>
@@ -6664,7 +6673,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>250</v>
       </c>
@@ -6681,7 +6690,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>252</v>
       </c>
@@ -6698,7 +6707,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>254</v>
       </c>
@@ -6715,7 +6724,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>256</v>
       </c>
@@ -6732,7 +6741,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>258</v>
       </c>
@@ -6749,7 +6758,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>260</v>
       </c>
@@ -6766,7 +6775,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>262</v>
       </c>
@@ -6783,7 +6792,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>264</v>
       </c>
@@ -6800,7 +6809,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>266</v>
       </c>
@@ -6817,7 +6826,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>268</v>
       </c>
@@ -6834,7 +6843,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>270</v>
       </c>
@@ -6851,7 +6860,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>272</v>
       </c>
@@ -6868,7 +6877,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>276</v>
       </c>
@@ -6885,7 +6894,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>278</v>
       </c>
@@ -6902,7 +6911,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>280</v>
       </c>
@@ -6925,7 +6934,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>282</v>
       </c>
@@ -6942,7 +6951,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>284</v>
       </c>
@@ -6965,7 +6974,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>286</v>
       </c>
@@ -6982,7 +6991,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>288</v>
       </c>
@@ -7005,7 +7014,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>290</v>
       </c>
@@ -7028,7 +7037,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>292</v>
       </c>
@@ -7051,7 +7060,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>294</v>
       </c>
@@ -7074,7 +7083,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>296</v>
       </c>
@@ -7091,7 +7100,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>298</v>
       </c>
@@ -7114,7 +7123,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>300</v>
       </c>
@@ -7137,7 +7146,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>302</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>304</v>
       </c>
@@ -7183,7 +7192,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>306</v>
       </c>
@@ -7204,7 +7213,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>308</v>
       </c>
@@ -7227,7 +7236,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>310</v>
       </c>
@@ -7250,7 +7259,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>312</v>
       </c>
@@ -7267,7 +7276,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>314</v>
       </c>
@@ -7290,7 +7299,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>316</v>
       </c>
@@ -7311,7 +7320,7 @@
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>318</v>
       </c>
@@ -7328,7 +7337,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>320</v>
       </c>
@@ -7351,7 +7360,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>322</v>
       </c>
@@ -7368,7 +7377,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>324</v>
       </c>
@@ -7385,7 +7394,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:8" s="8" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="8" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>326</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>13082</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>328</v>
       </c>
@@ -7434,7 +7443,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>1348</v>
       </c>
@@ -7457,7 +7466,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>331</v>
       </c>
@@ -7474,7 +7483,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>333</v>
       </c>
@@ -7491,7 +7500,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>335</v>
       </c>
@@ -7508,7 +7517,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>337</v>
       </c>
@@ -7525,7 +7534,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>339</v>
       </c>
@@ -7542,7 +7551,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>341</v>
       </c>
@@ -7559,7 +7568,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>343</v>
       </c>
@@ -7576,7 +7585,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>345</v>
       </c>
@@ -7593,7 +7602,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>347</v>
       </c>
@@ -7610,7 +7619,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>349</v>
       </c>
@@ -7627,7 +7636,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>351</v>
       </c>
@@ -7644,7 +7653,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>353</v>
       </c>
@@ -7661,7 +7670,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>355</v>
       </c>
@@ -7678,7 +7687,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>357</v>
       </c>
@@ -7695,7 +7704,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>359</v>
       </c>
@@ -7712,7 +7721,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>361</v>
       </c>
@@ -7729,7 +7738,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>363</v>
       </c>
@@ -7746,7 +7755,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>365</v>
       </c>
@@ -7763,7 +7772,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>367</v>
       </c>
@@ -7780,7 +7789,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>369</v>
       </c>
@@ -7797,7 +7806,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>371</v>
       </c>
@@ -7814,7 +7823,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>373</v>
       </c>
@@ -7831,7 +7840,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>375</v>
       </c>
@@ -7848,7 +7857,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>377</v>
       </c>
@@ -7865,7 +7874,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>379</v>
       </c>
@@ -7882,7 +7891,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>381</v>
       </c>
@@ -7899,7 +7908,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>383</v>
       </c>
@@ -7916,7 +7925,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>385</v>
       </c>
@@ -7933,7 +7942,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>387</v>
       </c>
@@ -7950,7 +7959,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>389</v>
       </c>
@@ -7967,7 +7976,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>391</v>
       </c>
@@ -7984,7 +7993,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>393</v>
       </c>
@@ -8001,7 +8010,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>395</v>
       </c>
@@ -8018,7 +8027,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>397</v>
       </c>
@@ -8035,7 +8044,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>399</v>
       </c>
@@ -8052,7 +8061,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>401</v>
       </c>
@@ -8069,7 +8078,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>403</v>
       </c>
@@ -8086,7 +8095,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>405</v>
       </c>
@@ -8103,7 +8112,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>407</v>
       </c>
@@ -8120,7 +8129,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>408</v>
       </c>
@@ -8137,7 +8146,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>410</v>
       </c>
@@ -8154,7 +8163,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>412</v>
       </c>
@@ -8171,7 +8180,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>414</v>
       </c>
@@ -8188,7 +8197,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>416</v>
       </c>
@@ -8205,7 +8214,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>418</v>
       </c>
@@ -8222,7 +8231,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>420</v>
       </c>
@@ -8239,7 +8248,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>422</v>
       </c>
@@ -8256,7 +8265,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>424</v>
       </c>
@@ -8273,7 +8282,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>426</v>
       </c>
@@ -8290,7 +8299,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>428</v>
       </c>
@@ -8307,7 +8316,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>430</v>
       </c>
@@ -8324,7 +8333,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>432</v>
       </c>
@@ -8341,7 +8350,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>434</v>
       </c>
@@ -8358,7 +8367,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>436</v>
       </c>
@@ -8375,7 +8384,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>437</v>
       </c>
@@ -8392,7 +8401,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>439</v>
       </c>
@@ -8409,7 +8418,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>441</v>
       </c>
@@ -8426,7 +8435,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>443</v>
       </c>
@@ -8443,7 +8452,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>445</v>
       </c>
@@ -8460,7 +8469,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>447</v>
       </c>
@@ -8477,7 +8486,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>449</v>
       </c>
@@ -8494,7 +8503,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>451</v>
       </c>
@@ -8511,7 +8520,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>453</v>
       </c>
@@ -8528,7 +8537,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>455</v>
       </c>
@@ -8545,7 +8554,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>457</v>
       </c>
@@ -8562,7 +8571,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>459</v>
       </c>
@@ -8579,7 +8588,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>461</v>
       </c>
@@ -8596,7 +8605,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>463</v>
       </c>
@@ -8613,7 +8622,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>465</v>
       </c>
@@ -8630,7 +8639,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>467</v>
       </c>
@@ -8647,7 +8656,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>469</v>
       </c>
@@ -8664,7 +8673,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>471</v>
       </c>
@@ -8681,7 +8690,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>473</v>
       </c>
@@ -8698,7 +8707,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>475</v>
       </c>
@@ -8715,7 +8724,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>477</v>
       </c>
@@ -8732,7 +8741,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>479</v>
       </c>
@@ -8749,7 +8758,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>481</v>
       </c>
@@ -8766,7 +8775,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>483</v>
       </c>
@@ -8783,7 +8792,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>485</v>
       </c>
@@ -8800,7 +8809,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>487</v>
       </c>
@@ -8817,7 +8826,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>489</v>
       </c>
@@ -8834,7 +8843,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>491</v>
       </c>
@@ -8851,7 +8860,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>493</v>
       </c>
@@ -8868,7 +8877,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>495</v>
       </c>
@@ -8885,7 +8894,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>497</v>
       </c>
@@ -8902,7 +8911,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>499</v>
       </c>
@@ -8919,7 +8928,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>501</v>
       </c>
@@ -8936,7 +8945,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>503</v>
       </c>
@@ -8953,7 +8962,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>505</v>
       </c>
@@ -8970,7 +8979,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>507</v>
       </c>
@@ -8987,7 +8996,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>509</v>
       </c>
@@ -9004,7 +9013,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>511</v>
       </c>
@@ -9021,7 +9030,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>513</v>
       </c>
@@ -9038,7 +9047,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>515</v>
       </c>
@@ -9055,7 +9064,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>517</v>
       </c>
@@ -9072,7 +9081,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>519</v>
       </c>
@@ -9089,7 +9098,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>521</v>
       </c>
@@ -9106,7 +9115,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>523</v>
       </c>
@@ -9123,7 +9132,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>525</v>
       </c>
@@ -9140,7 +9149,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>527</v>
       </c>
@@ -9157,7 +9166,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>530</v>
       </c>
@@ -9174,7 +9183,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>532</v>
       </c>
@@ -9191,7 +9200,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>534</v>
       </c>
@@ -9208,7 +9217,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>536</v>
       </c>
@@ -9225,7 +9234,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>538</v>
       </c>
@@ -9242,7 +9251,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>540</v>
       </c>
@@ -9259,7 +9268,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>542</v>
       </c>
@@ -9276,7 +9285,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>544</v>
       </c>
@@ -9293,7 +9302,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>546</v>
       </c>
@@ -9310,7 +9319,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>548</v>
       </c>
@@ -9327,7 +9336,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>550</v>
       </c>
@@ -9344,7 +9353,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>552</v>
       </c>
@@ -9361,7 +9370,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>554</v>
       </c>
@@ -9378,7 +9387,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>556</v>
       </c>
@@ -9395,7 +9404,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>558</v>
       </c>
@@ -9412,7 +9421,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>560</v>
       </c>
@@ -9429,7 +9438,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>562</v>
       </c>
@@ -9446,7 +9455,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>564</v>
       </c>
@@ -9463,7 +9472,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>566</v>
       </c>
@@ -9480,7 +9489,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>568</v>
       </c>
@@ -9497,7 +9506,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>570</v>
       </c>
@@ -9514,7 +9523,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>572</v>
       </c>
@@ -9531,7 +9540,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>574</v>
       </c>
@@ -9548,7 +9557,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>576</v>
       </c>
@@ -9565,7 +9574,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>578</v>
       </c>
@@ -9582,7 +9591,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>580</v>
       </c>
@@ -9599,7 +9608,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>582</v>
       </c>
@@ -9616,7 +9625,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>584</v>
       </c>
@@ -9633,7 +9642,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>586</v>
       </c>
@@ -9650,7 +9659,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>588</v>
       </c>
@@ -9667,7 +9676,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>590</v>
       </c>
@@ -9684,7 +9693,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>592</v>
       </c>
@@ -9701,7 +9710,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>594</v>
       </c>
@@ -9718,7 +9727,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>596</v>
       </c>
@@ -9735,7 +9744,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>598</v>
       </c>
@@ -9752,7 +9761,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>600</v>
       </c>
@@ -9769,7 +9778,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>603</v>
       </c>
@@ -9792,7 +9801,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>604</v>
       </c>
@@ -9809,7 +9818,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>606</v>
       </c>
@@ -9826,7 +9835,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>608</v>
       </c>
@@ -9843,7 +9852,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>610</v>
       </c>
@@ -9860,7 +9869,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>612</v>
       </c>
@@ -9877,7 +9886,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>614</v>
       </c>
@@ -9894,7 +9903,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>616</v>
       </c>
@@ -9911,7 +9920,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>618</v>
       </c>
@@ -9928,7 +9937,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>620</v>
       </c>
@@ -9945,7 +9954,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>622</v>
       </c>
@@ -9962,7 +9971,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>624</v>
       </c>
@@ -9979,7 +9988,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>626</v>
       </c>
@@ -9996,7 +10005,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>628</v>
       </c>
@@ -10013,7 +10022,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>630</v>
       </c>
@@ -10030,7 +10039,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>632</v>
       </c>
@@ -10047,7 +10056,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>634</v>
       </c>
@@ -10064,7 +10073,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>636</v>
       </c>
@@ -10081,7 +10090,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>638</v>
       </c>
@@ -10098,7 +10107,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>640</v>
       </c>
@@ -10115,7 +10124,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>642</v>
       </c>
@@ -10132,7 +10141,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>644</v>
       </c>
@@ -10149,7 +10158,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>646</v>
       </c>
@@ -10166,7 +10175,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>648</v>
       </c>
@@ -10183,7 +10192,7 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>650</v>
       </c>
@@ -10200,7 +10209,7 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>652</v>
       </c>
@@ -10217,7 +10226,7 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>654</v>
       </c>
@@ -10234,7 +10243,7 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>656</v>
       </c>
@@ -10251,7 +10260,7 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>658</v>
       </c>
@@ -10268,7 +10277,7 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>660</v>
       </c>
@@ -10285,7 +10294,7 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>662</v>
       </c>
@@ -10302,7 +10311,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>664</v>
       </c>
@@ -10319,7 +10328,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>666</v>
       </c>
@@ -10336,7 +10345,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>668</v>
       </c>
@@ -10353,7 +10362,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>670</v>
       </c>
@@ -10370,7 +10379,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>672</v>
       </c>
@@ -10387,7 +10396,7 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>674</v>
       </c>
@@ -10404,7 +10413,7 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>676</v>
       </c>
@@ -10421,7 +10430,7 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
     </row>
-    <row r="332" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>678</v>
       </c>
@@ -10438,7 +10447,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>680</v>
       </c>
@@ -10455,7 +10464,7 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
     </row>
-    <row r="334" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>682</v>
       </c>
@@ -10472,7 +10481,7 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
     </row>
-    <row r="335" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>684</v>
       </c>
@@ -10489,7 +10498,7 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>686</v>
       </c>
@@ -10506,7 +10515,7 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
     </row>
-    <row r="337" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>688</v>
       </c>
@@ -10523,7 +10532,7 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
     </row>
-    <row r="338" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>690</v>
       </c>
@@ -10540,7 +10549,7 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
     </row>
-    <row r="339" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>693</v>
       </c>
@@ -10557,7 +10566,7 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
     </row>
-    <row r="340" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>695</v>
       </c>
@@ -10574,7 +10583,7 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>697</v>
       </c>
@@ -10591,7 +10600,7 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
     </row>
-    <row r="342" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>699</v>
       </c>
@@ -10608,7 +10617,7 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
     </row>
-    <row r="343" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>701</v>
       </c>
@@ -10625,7 +10634,7 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>703</v>
       </c>
@@ -10642,7 +10651,7 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
     </row>
-    <row r="345" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>705</v>
       </c>
@@ -10659,7 +10668,7 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
     </row>
-    <row r="346" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>707</v>
       </c>
@@ -10676,7 +10685,7 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
     </row>
-    <row r="347" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>709</v>
       </c>
@@ -10693,7 +10702,7 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
     </row>
-    <row r="348" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>711</v>
       </c>
@@ -10710,7 +10719,7 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>713</v>
       </c>
@@ -10727,7 +10736,7 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>715</v>
       </c>
@@ -10744,7 +10753,7 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>717</v>
       </c>
@@ -10761,7 +10770,7 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>719</v>
       </c>
@@ -10778,7 +10787,7 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>721</v>
       </c>
@@ -10795,7 +10804,7 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>723</v>
       </c>
@@ -10812,7 +10821,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
     </row>
-    <row r="355" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>725</v>
       </c>
@@ -10829,7 +10838,7 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>727</v>
       </c>
@@ -10846,7 +10855,7 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>729</v>
       </c>
@@ -10863,7 +10872,7 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>732</v>
       </c>
@@ -10880,7 +10889,7 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>734</v>
       </c>
@@ -10897,7 +10906,7 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>736</v>
       </c>
@@ -10914,7 +10923,7 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>738</v>
       </c>
@@ -10931,7 +10940,7 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>740</v>
       </c>
@@ -10948,7 +10957,7 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>742</v>
       </c>
@@ -10965,7 +10974,7 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>744</v>
       </c>
@@ -10982,7 +10991,7 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>745</v>
       </c>
@@ -10999,7 +11008,7 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>747</v>
       </c>
@@ -11016,7 +11025,7 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>749</v>
       </c>
@@ -11033,7 +11042,7 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>751</v>
       </c>
@@ -11050,7 +11059,7 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>752</v>
       </c>
@@ -11067,7 +11076,7 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>754</v>
       </c>
@@ -11084,7 +11093,7 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>755</v>
       </c>
@@ -11101,7 +11110,7 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>757</v>
       </c>
@@ -11118,7 +11127,7 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
     </row>
-    <row r="373" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>759</v>
       </c>
@@ -11135,7 +11144,7 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
     </row>
-    <row r="374" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>761</v>
       </c>
@@ -11152,7 +11161,7 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
     </row>
-    <row r="375" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>763</v>
       </c>
@@ -11169,7 +11178,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>765</v>
       </c>
@@ -11186,7 +11195,7 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
     </row>
-    <row r="377" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>767</v>
       </c>
@@ -11203,7 +11212,7 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
     </row>
-    <row r="378" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>769</v>
       </c>
@@ -11220,7 +11229,7 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
     </row>
-    <row r="379" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>771</v>
       </c>
@@ -11237,7 +11246,7 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
     </row>
-    <row r="380" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>773</v>
       </c>
@@ -11254,7 +11263,7 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
     </row>
-    <row r="381" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>775</v>
       </c>
@@ -11271,7 +11280,7 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
     </row>
-    <row r="382" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>777</v>
       </c>
@@ -11288,7 +11297,7 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>779</v>
       </c>
@@ -11305,7 +11314,7 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
     </row>
-    <row r="384" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>781</v>
       </c>
@@ -11322,7 +11331,7 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
     </row>
-    <row r="385" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>783</v>
       </c>
@@ -11339,7 +11348,7 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
     </row>
-    <row r="386" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>785</v>
       </c>
@@ -11356,7 +11365,7 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
     </row>
-    <row r="387" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>787</v>
       </c>
@@ -11373,7 +11382,7 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
     </row>
-    <row r="388" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>789</v>
       </c>
@@ -11390,7 +11399,7 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
     </row>
-    <row r="389" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>791</v>
       </c>
@@ -11407,7 +11416,7 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
     </row>
-    <row r="390" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>793</v>
       </c>
@@ -11424,7 +11433,7 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
     </row>
-    <row r="391" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>795</v>
       </c>
@@ -11441,7 +11450,7 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
     </row>
-    <row r="392" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>796</v>
       </c>
@@ -11458,7 +11467,7 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
     </row>
-    <row r="393" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>798</v>
       </c>
@@ -11475,7 +11484,7 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
     </row>
-    <row r="394" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>800</v>
       </c>
@@ -11492,7 +11501,7 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
     </row>
-    <row r="395" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>802</v>
       </c>
@@ -11509,7 +11518,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>804</v>
       </c>
@@ -11526,7 +11535,7 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
     </row>
-    <row r="397" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>806</v>
       </c>
@@ -11543,7 +11552,7 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
     </row>
-    <row r="398" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>808</v>
       </c>
@@ -11560,7 +11569,7 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
     </row>
-    <row r="399" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>810</v>
       </c>
@@ -11577,7 +11586,7 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
     </row>
-    <row r="400" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>812</v>
       </c>
@@ -11594,7 +11603,7 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
     </row>
-    <row r="401" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>814</v>
       </c>
@@ -11611,7 +11620,7 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
     </row>
-    <row r="402" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>816</v>
       </c>
@@ -11628,7 +11637,7 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
     </row>
-    <row r="403" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>818</v>
       </c>
@@ -11645,7 +11654,7 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
     </row>
-    <row r="404" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>820</v>
       </c>
@@ -11662,7 +11671,7 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>822</v>
       </c>
@@ -11679,7 +11688,7 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
     </row>
-    <row r="406" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>825</v>
       </c>
@@ -11696,7 +11705,7 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
     </row>
-    <row r="407" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>828</v>
       </c>
@@ -11719,7 +11728,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="8" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" s="8" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
         <v>830</v>
       </c>
@@ -11742,7 +11751,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>832</v>
       </c>
@@ -11765,7 +11774,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>834</v>
       </c>
@@ -11788,7 +11797,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>836</v>
       </c>
@@ -11811,7 +11820,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>838</v>
       </c>
@@ -11834,7 +11843,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>840</v>
       </c>
@@ -11851,7 +11860,7 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
     </row>
-    <row r="414" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>842</v>
       </c>
@@ -11874,7 +11883,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>844</v>
       </c>
@@ -11897,7 +11906,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>846</v>
       </c>
@@ -11918,7 +11927,7 @@
       </c>
       <c r="G416" s="1"/>
     </row>
-    <row r="417" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>848</v>
       </c>
@@ -11935,7 +11944,7 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
     </row>
-    <row r="418" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>850</v>
       </c>
@@ -11958,7 +11967,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>852</v>
       </c>
@@ -11981,7 +11990,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>854</v>
       </c>
@@ -11998,7 +12007,7 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
     </row>
-    <row r="421" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>857</v>
       </c>
@@ -12015,7 +12024,7 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
     </row>
-    <row r="422" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>859</v>
       </c>
@@ -12032,7 +12041,7 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
     </row>
-    <row r="423" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>861</v>
       </c>
@@ -12049,7 +12058,7 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
     </row>
-    <row r="424" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>863</v>
       </c>
@@ -12066,7 +12075,7 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
     </row>
-    <row r="425" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>865</v>
       </c>
@@ -12083,7 +12092,7 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
     </row>
-    <row r="426" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>867</v>
       </c>
@@ -12100,7 +12109,7 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
     </row>
-    <row r="427" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>869</v>
       </c>
@@ -12117,7 +12126,7 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
     </row>
-    <row r="428" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>871</v>
       </c>
@@ -12134,7 +12143,7 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
     </row>
-    <row r="429" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>873</v>
       </c>
@@ -12151,7 +12160,7 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
     </row>
-    <row r="430" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>875</v>
       </c>
@@ -12168,7 +12177,7 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
     </row>
-    <row r="431" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>877</v>
       </c>
@@ -12185,7 +12194,7 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
     </row>
-    <row r="432" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>879</v>
       </c>
@@ -12202,7 +12211,7 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
     </row>
-    <row r="433" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>881</v>
       </c>
@@ -12219,7 +12228,7 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
     </row>
-    <row r="434" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>883</v>
       </c>
@@ -12236,7 +12245,7 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
     </row>
-    <row r="435" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>885</v>
       </c>
@@ -12253,7 +12262,7 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
     </row>
-    <row r="436" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>887</v>
       </c>
@@ -12270,7 +12279,7 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
     </row>
-    <row r="437" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>889</v>
       </c>
@@ -12287,7 +12296,7 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
     </row>
-    <row r="438" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>891</v>
       </c>
@@ -12304,7 +12313,7 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
     </row>
-    <row r="439" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>893</v>
       </c>
@@ -12321,7 +12330,7 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
     </row>
-    <row r="440" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>895</v>
       </c>
@@ -12338,7 +12347,7 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
     </row>
-    <row r="441" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>897</v>
       </c>
@@ -12355,7 +12364,7 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
     </row>
-    <row r="442" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>899</v>
       </c>
@@ -12372,7 +12381,7 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
     </row>
-    <row r="443" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>901</v>
       </c>
@@ -12389,7 +12398,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>903</v>
       </c>
@@ -12406,7 +12415,7 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
     </row>
-    <row r="445" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>905</v>
       </c>
@@ -12423,7 +12432,7 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
     </row>
-    <row r="446" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>907</v>
       </c>
@@ -12440,7 +12449,7 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
     </row>
-    <row r="447" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>909</v>
       </c>
@@ -12457,7 +12466,7 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
     </row>
-    <row r="448" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>911</v>
       </c>
@@ -12474,7 +12483,7 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
     </row>
-    <row r="449" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>913</v>
       </c>
@@ -12491,7 +12500,7 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
     </row>
-    <row r="450" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>915</v>
       </c>
@@ -12508,7 +12517,7 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>917</v>
       </c>
@@ -12525,7 +12534,7 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
     </row>
-    <row r="452" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>919</v>
       </c>
@@ -12542,7 +12551,7 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
     </row>
-    <row r="453" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>921</v>
       </c>
@@ -12559,7 +12568,7 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
     </row>
-    <row r="454" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>923</v>
       </c>
@@ -12576,7 +12585,7 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
     </row>
-    <row r="455" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>925</v>
       </c>
@@ -12593,7 +12602,7 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
     </row>
-    <row r="456" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>927</v>
       </c>
@@ -12610,7 +12619,7 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
     </row>
-    <row r="457" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>929</v>
       </c>
@@ -12627,7 +12636,7 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
     </row>
-    <row r="458" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>931</v>
       </c>
@@ -12644,7 +12653,7 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
     </row>
-    <row r="459" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>933</v>
       </c>
@@ -12661,7 +12670,7 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
     </row>
-    <row r="460" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>935</v>
       </c>
@@ -12678,7 +12687,7 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
     </row>
-    <row r="461" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>937</v>
       </c>
@@ -12695,7 +12704,7 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
     </row>
-    <row r="462" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>939</v>
       </c>
@@ -12712,7 +12721,7 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
     </row>
-    <row r="463" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>941</v>
       </c>
@@ -12729,7 +12738,7 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
     </row>
-    <row r="464" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>943</v>
       </c>
@@ -12746,7 +12755,7 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
     </row>
-    <row r="465" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>945</v>
       </c>
@@ -12763,7 +12772,7 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
     </row>
-    <row r="466" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>947</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>949</v>
       </c>
@@ -12807,7 +12816,7 @@
       </c>
       <c r="G467" s="1"/>
     </row>
-    <row r="468" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>951</v>
       </c>
@@ -12830,7 +12839,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>953</v>
       </c>
@@ -12853,7 +12862,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>955</v>
       </c>
@@ -12876,7 +12885,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>957</v>
       </c>
@@ -12899,7 +12908,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>959</v>
       </c>
@@ -12922,7 +12931,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>961</v>
       </c>
@@ -12945,7 +12954,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>963</v>
       </c>
@@ -12962,7 +12971,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>965</v>
       </c>
@@ -12985,7 +12994,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>966</v>
       </c>
@@ -13008,7 +13017,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>968</v>
       </c>
@@ -13031,7 +13040,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>970</v>
       </c>
@@ -13054,7 +13063,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>972</v>
       </c>
@@ -13077,7 +13086,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>974</v>
       </c>
@@ -13098,7 +13107,7 @@
       </c>
       <c r="G480" s="1"/>
     </row>
-    <row r="481" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>976</v>
       </c>
@@ -13121,7 +13130,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>978</v>
       </c>
@@ -13144,7 +13153,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>980</v>
       </c>
@@ -13161,7 +13170,7 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
     </row>
-    <row r="484" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>982</v>
       </c>
@@ -13184,7 +13193,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>984</v>
       </c>
@@ -13207,7 +13216,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>986</v>
       </c>
@@ -13230,7 +13239,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>988</v>
       </c>
@@ -13253,7 +13262,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>990</v>
       </c>
@@ -13276,7 +13285,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>992</v>
       </c>
@@ -13299,7 +13308,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>994</v>
       </c>
@@ -13322,7 +13331,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>996</v>
       </c>
@@ -13345,7 +13354,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>998</v>
       </c>
@@ -13368,7 +13377,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>1000</v>
       </c>
@@ -13391,7 +13400,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>1002</v>
       </c>
@@ -13414,7 +13423,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1004</v>
       </c>
@@ -13437,7 +13446,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>1006</v>
       </c>
@@ -13454,7 +13463,7 @@
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
     </row>
-    <row r="497" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>1008</v>
       </c>
@@ -13477,7 +13486,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>1010</v>
       </c>
@@ -13494,7 +13503,7 @@
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
     </row>
-    <row r="499" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1012</v>
       </c>
@@ -13517,7 +13526,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1014</v>
       </c>
@@ -13540,7 +13549,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1016</v>
       </c>
@@ -13563,7 +13572,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1018</v>
       </c>
@@ -13580,7 +13589,7 @@
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
     </row>
-    <row r="503" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13597,7 +13606,7 @@
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
     </row>
-    <row r="504" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>1023</v>
       </c>
@@ -13614,7 +13623,7 @@
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
     </row>
-    <row r="505" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>1025</v>
       </c>
@@ -13631,7 +13640,7 @@
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
     </row>
-    <row r="506" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>1027</v>
       </c>
@@ -13648,7 +13657,7 @@
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
     </row>
-    <row r="507" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>1029</v>
       </c>
@@ -13665,7 +13674,7 @@
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
     </row>
-    <row r="508" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>1031</v>
       </c>
@@ -13682,7 +13691,7 @@
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
     </row>
-    <row r="509" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1033</v>
       </c>
@@ -13699,7 +13708,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>1035</v>
       </c>
@@ -13716,7 +13725,7 @@
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
     </row>
-    <row r="511" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>1037</v>
       </c>
@@ -13733,7 +13742,7 @@
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
     </row>
-    <row r="512" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>1039</v>
       </c>
@@ -13750,7 +13759,7 @@
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
     </row>
-    <row r="513" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>1041</v>
       </c>
@@ -13767,7 +13776,7 @@
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
     </row>
-    <row r="514" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13784,7 +13793,7 @@
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
     </row>
-    <row r="515" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>1045</v>
       </c>
@@ -13801,7 +13810,7 @@
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
     </row>
-    <row r="516" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13818,7 +13827,7 @@
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
     </row>
-    <row r="517" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>1049</v>
       </c>
@@ -13835,7 +13844,7 @@
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
     </row>
-    <row r="518" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13852,7 +13861,7 @@
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
     </row>
-    <row r="519" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13869,7 +13878,7 @@
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
     </row>
-    <row r="520" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>1055</v>
       </c>
@@ -13886,7 +13895,7 @@
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
     </row>
-    <row r="521" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>1057</v>
       </c>
@@ -13903,7 +13912,7 @@
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
     </row>
-    <row r="522" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13920,7 +13929,7 @@
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
     </row>
-    <row r="523" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>1061</v>
       </c>
@@ -13937,7 +13946,7 @@
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
     </row>
-    <row r="524" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>1063</v>
       </c>
@@ -13954,7 +13963,7 @@
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
     </row>
-    <row r="525" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>1065</v>
       </c>
@@ -13971,7 +13980,7 @@
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
     </row>
-    <row r="526" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>1067</v>
       </c>
@@ -13988,7 +13997,7 @@
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
     </row>
-    <row r="527" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>1069</v>
       </c>
@@ -14005,7 +14014,7 @@
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
     </row>
-    <row r="528" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>1072</v>
       </c>
@@ -14022,7 +14031,7 @@
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
     </row>
-    <row r="529" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14039,7 +14048,7 @@
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
     </row>
-    <row r="530" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>1076</v>
       </c>
@@ -14056,7 +14065,7 @@
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
     </row>
-    <row r="531" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>1078</v>
       </c>
@@ -14073,7 +14082,7 @@
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
     </row>
-    <row r="532" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>1080</v>
       </c>
@@ -14090,7 +14099,7 @@
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
     </row>
-    <row r="533" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>1082</v>
       </c>
@@ -14107,7 +14116,7 @@
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
     </row>
-    <row r="534" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>1085</v>
       </c>
@@ -14124,7 +14133,7 @@
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
     </row>
-    <row r="535" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>1087</v>
       </c>
@@ -14141,7 +14150,7 @@
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
     </row>
-    <row r="536" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>1089</v>
       </c>
@@ -14158,7 +14167,7 @@
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
     </row>
-    <row r="537" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>1091</v>
       </c>
@@ -14175,7 +14184,7 @@
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
     </row>
-    <row r="538" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>1093</v>
       </c>
@@ -14192,7 +14201,7 @@
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
     </row>
-    <row r="539" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>1095</v>
       </c>
@@ -14209,7 +14218,7 @@
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
     </row>
-    <row r="540" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>1096</v>
       </c>
@@ -14226,7 +14235,7 @@
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
     </row>
-    <row r="541" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>1098</v>
       </c>
@@ -14243,7 +14252,7 @@
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>1100</v>
       </c>
@@ -14260,7 +14269,7 @@
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
     </row>
-    <row r="543" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14277,7 +14286,7 @@
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
     </row>
-    <row r="544" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>1104</v>
       </c>
@@ -14294,7 +14303,7 @@
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
     </row>
-    <row r="545" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>1106</v>
       </c>
@@ -14311,7 +14320,7 @@
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
     </row>
-    <row r="546" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>1108</v>
       </c>
@@ -14328,7 +14337,7 @@
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
     </row>
-    <row r="547" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>1110</v>
       </c>
@@ -14345,7 +14354,7 @@
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
     </row>
-    <row r="548" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>1112</v>
       </c>
@@ -14362,7 +14371,7 @@
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
     </row>
-    <row r="549" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>1114</v>
       </c>
@@ -14379,7 +14388,7 @@
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
     </row>
-    <row r="550" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>1116</v>
       </c>
@@ -14396,7 +14405,7 @@
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
     </row>
-    <row r="551" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>1118</v>
       </c>
@@ -14413,7 +14422,7 @@
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
     </row>
-    <row r="552" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>1120</v>
       </c>
@@ -14430,7 +14439,7 @@
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
     </row>
-    <row r="553" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>1122</v>
       </c>
@@ -14447,7 +14456,7 @@
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
     </row>
-    <row r="554" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>1124</v>
       </c>
@@ -14464,7 +14473,7 @@
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
     </row>
-    <row r="555" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>1126</v>
       </c>
@@ -14481,7 +14490,7 @@
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
     </row>
-    <row r="556" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>1128</v>
       </c>
@@ -14498,7 +14507,7 @@
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
     </row>
-    <row r="557" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>1130</v>
       </c>
@@ -14515,7 +14524,7 @@
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
     </row>
-    <row r="558" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>1132</v>
       </c>
@@ -14532,7 +14541,7 @@
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
     </row>
-    <row r="559" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>1133</v>
       </c>
@@ -14549,7 +14558,7 @@
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
     </row>
-    <row r="560" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14566,7 +14575,7 @@
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
     </row>
-    <row r="561" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>1138</v>
       </c>
@@ -14583,7 +14592,7 @@
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
     </row>
-    <row r="562" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>1140</v>
       </c>
@@ -14600,7 +14609,7 @@
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
     </row>
-    <row r="563" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>1143</v>
       </c>
@@ -14617,7 +14626,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>1145</v>
       </c>
@@ -14634,7 +14643,7 @@
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
     </row>
-    <row r="565" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>1148</v>
       </c>
@@ -14651,7 +14660,7 @@
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
     </row>
-    <row r="566" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>1150</v>
       </c>
@@ -14668,7 +14677,7 @@
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
     </row>
-    <row r="567" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>1152</v>
       </c>
@@ -14685,7 +14694,7 @@
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
     </row>
-    <row r="568" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>1155</v>
       </c>
@@ -14702,7 +14711,7 @@
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
     </row>
-    <row r="569" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>1158</v>
       </c>
@@ -14719,7 +14728,7 @@
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
     </row>
-    <row r="570" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>1160</v>
       </c>
@@ -14736,7 +14745,7 @@
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
     </row>
-    <row r="571" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>1162</v>
       </c>
@@ -14753,7 +14762,7 @@
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
     </row>
-    <row r="572" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>1164</v>
       </c>
@@ -14770,7 +14779,7 @@
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
     </row>
-    <row r="573" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14787,7 +14796,7 @@
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
     </row>
-    <row r="574" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>1168</v>
       </c>
@@ -14804,7 +14813,7 @@
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
     </row>
-    <row r="575" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>1170</v>
       </c>
@@ -14821,7 +14830,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>1172</v>
       </c>
@@ -14838,7 +14847,7 @@
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
     </row>
-    <row r="577" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>1174</v>
       </c>
@@ -14855,7 +14864,7 @@
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
     </row>
-    <row r="578" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>1176</v>
       </c>
@@ -14872,7 +14881,7 @@
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
     </row>
-    <row r="579" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>1178</v>
       </c>
@@ -14889,7 +14898,7 @@
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>
     </row>
-    <row r="580" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>1180</v>
       </c>
@@ -14906,7 +14915,7 @@
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>
     </row>
-    <row r="581" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>1181</v>
       </c>
@@ -14923,7 +14932,7 @@
       <c r="F581" s="1"/>
       <c r="G581" s="1"/>
     </row>
-    <row r="582" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>1183</v>
       </c>
@@ -14940,7 +14949,7 @@
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
     </row>
-    <row r="583" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>1185</v>
       </c>
@@ -14957,7 +14966,7 @@
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
     </row>
-    <row r="584" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>1187</v>
       </c>
@@ -14974,7 +14983,7 @@
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
     </row>
-    <row r="585" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>1189</v>
       </c>
@@ -14997,7 +15006,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>1192</v>
       </c>
@@ -15020,7 +15029,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>1194</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>1196</v>
       </c>
@@ -15066,7 +15075,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>1198</v>
       </c>
@@ -15083,7 +15092,7 @@
       <c r="F589" s="1"/>
       <c r="G589" s="1"/>
     </row>
-    <row r="590" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>1200</v>
       </c>
@@ -15106,7 +15115,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>1202</v>
       </c>
@@ -15129,7 +15138,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>1205</v>
       </c>
@@ -15152,7 +15161,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>1207</v>
       </c>
@@ -15169,7 +15178,7 @@
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
     </row>
-    <row r="594" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>1209</v>
       </c>
@@ -15192,7 +15201,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>1211</v>
       </c>
@@ -15215,7 +15224,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>1213</v>
       </c>
@@ -15238,7 +15247,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>1215</v>
       </c>
@@ -15261,7 +15270,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E599" s="6"/>
     </row>
   </sheetData>

--- a/VII - PASSED OUT bashir.xlsx
+++ b/VII - PASSED OUT bashir.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$597</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1426">
   <si>
     <t>REGISTRATION NUMBER</t>
   </si>
@@ -4177,6 +4177,129 @@
   </si>
   <si>
     <t>03064168018</t>
+  </si>
+  <si>
+    <t>03213849616</t>
+  </si>
+  <si>
+    <t>03335304594</t>
+  </si>
+  <si>
+    <t>03353247312</t>
+  </si>
+  <si>
+    <t>03360462484</t>
+  </si>
+  <si>
+    <t>03084081037</t>
+  </si>
+  <si>
+    <t>03214318786</t>
+  </si>
+  <si>
+    <t>03174333811</t>
+  </si>
+  <si>
+    <t>03249439206</t>
+  </si>
+  <si>
+    <t>03094164322'03228888404</t>
+  </si>
+  <si>
+    <t>03054459966</t>
+  </si>
+  <si>
+    <t>03004364065</t>
+  </si>
+  <si>
+    <t>03064529019</t>
+  </si>
+  <si>
+    <t>03464148629</t>
+  </si>
+  <si>
+    <t>03009490933</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>03350848888</t>
+  </si>
+  <si>
+    <t>03006407709</t>
+  </si>
+  <si>
+    <t>03214159874</t>
+  </si>
+  <si>
+    <t>03216477110</t>
+  </si>
+  <si>
+    <t>03161434074</t>
+  </si>
+  <si>
+    <t>03024841903</t>
+  </si>
+  <si>
+    <t>03039750182</t>
+  </si>
+  <si>
+    <t>03212717465</t>
+  </si>
+  <si>
+    <t>03259191515</t>
+  </si>
+  <si>
+    <t>03009191515</t>
+  </si>
+  <si>
+    <t>03054762940</t>
+  </si>
+  <si>
+    <t>03134531078</t>
+  </si>
+  <si>
+    <t>03354387139</t>
+  </si>
+  <si>
+    <t>03345277246</t>
+  </si>
+  <si>
+    <t>03143967293</t>
+  </si>
+  <si>
+    <t>03004125420</t>
+  </si>
+  <si>
+    <t>03214975845</t>
+  </si>
+  <si>
+    <t>03004005164</t>
+  </si>
+  <si>
+    <t>03164176810</t>
+  </si>
+  <si>
+    <t>03004276429</t>
+  </si>
+  <si>
+    <t>03018096148</t>
+  </si>
+  <si>
+    <t>03484614973</t>
+  </si>
+  <si>
+    <t>03157688530</t>
+  </si>
+  <si>
+    <t>03158620910</t>
+  </si>
+  <si>
+    <t>03048954576</t>
+  </si>
+  <si>
+    <t>03422721297</t>
   </si>
 </sst>
 </file>
@@ -4581,7 +4704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4591,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="G346" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7470,9 +7593,15 @@
       <c r="D158" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="E158" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -7504,9 +7633,15 @@
       <c r="D160" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="E160" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="161" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -7521,9 +7656,15 @@
       <c r="D161" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="E161" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="162" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -7538,9 +7679,15 @@
       <c r="D162" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="E162" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="163" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -7572,9 +7719,15 @@
       <c r="D164" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="E164" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="165" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -7589,9 +7742,15 @@
       <c r="D165" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="E165" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="166" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -7606,9 +7765,15 @@
       <c r="D166" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="E166" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="167" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -7623,9 +7788,15 @@
       <c r="D167" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="E167" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F167" s="1">
+        <v>3004362366</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="168" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -7640,9 +7811,15 @@
       <c r="D168" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="E168" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F168" s="1">
+        <v>3223645385</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="169" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
@@ -7657,9 +7834,15 @@
       <c r="D169" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
+      <c r="E169" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="170" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -7708,9 +7891,15 @@
       <c r="D172" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
+      <c r="E172" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="173" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -7725,9 +7914,15 @@
       <c r="D173" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
+      <c r="E173" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -7742,9 +7937,15 @@
       <c r="D174" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="E174" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="175" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -7776,9 +7977,15 @@
       <c r="D176" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
+      <c r="E176" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="177" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -7810,8 +8017,12 @@
       <c r="D178" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="E178" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>1399</v>
+      </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7861,9 +8072,15 @@
       <c r="D181" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
+      <c r="E181" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="182" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -7878,9 +8095,15 @@
       <c r="D182" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
+      <c r="E182" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="183" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -7912,9 +8135,13 @@
       <c r="D184" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E184" s="1"/>
+      <c r="E184" s="4" t="s">
+        <v>1393</v>
+      </c>
       <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
+      <c r="G184" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="185" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -7929,9 +8156,15 @@
       <c r="D185" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="E185" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="186" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -7946,9 +8179,15 @@
       <c r="D186" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
+      <c r="E186" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="187" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -7963,9 +8202,15 @@
       <c r="D187" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="E187" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="188" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -7980,9 +8225,15 @@
       <c r="D188" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="E188" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="189" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -15265,6 +15516,7 @@
       <c r="E599" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H597"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
